--- a/JOLMetaData.xlsx
+++ b/JOLMetaData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/JoL-Meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\JoL-Meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="using" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="428">
   <si>
     <t>Rank</t>
   </si>
@@ -1203,12 +1203,126 @@
   </si>
   <si>
     <t>Nelson &amp; Dunlsoky 1995 (?)</t>
+  </si>
+  <si>
+    <t>The interplay between value and relatedness as bases for metacognitive monitoring and contrl: Evidence for agenda-based monitoring</t>
+  </si>
+  <si>
+    <t>Nicholas C. Soderstrom</t>
+  </si>
+  <si>
+    <t>Self-evaluationa s a moderating factor of strategy change in directed forgetting benefits</t>
+  </si>
+  <si>
+    <t>Lili Sahakyan</t>
+  </si>
+  <si>
+    <t>Peter F. Delaney</t>
+  </si>
+  <si>
+    <t>Colleen M. Kelley</t>
+  </si>
+  <si>
+    <t>Metakognitive uberwachungsund selbstkontrollprozesse bei der lernzeiteinteilung von kinder</t>
+  </si>
+  <si>
+    <t>Kathrin lockl</t>
+  </si>
+  <si>
+    <t>Wolfgang Schneider</t>
+  </si>
+  <si>
+    <t>Article is in German</t>
+  </si>
+  <si>
+    <t>Using electronic flashcards to promote learning in medical students: Retesting versus restudying</t>
+  </si>
+  <si>
+    <t>Ralf Schmidmaier</t>
+  </si>
+  <si>
+    <t>Rene Ebersbach</t>
+  </si>
+  <si>
+    <t>Miriam Schiller</t>
+  </si>
+  <si>
+    <t>Inga Hege</t>
+  </si>
+  <si>
+    <t>Mathias Holzer</t>
+  </si>
+  <si>
+    <t>Martin R Fischer</t>
+  </si>
+  <si>
+    <t>Does easily learned mean easily remembered? It depends on your beliefs about intelligence</t>
+  </si>
+  <si>
+    <t>David B. Miele</t>
+  </si>
+  <si>
+    <t>Daniel C. Molden</t>
+  </si>
+  <si>
+    <t>Multiple study trials and judgments of learning</t>
+  </si>
+  <si>
+    <t>Martijn Meeter</t>
+  </si>
+  <si>
+    <t>Nelson &amp; Dunlosky 1991</t>
+  </si>
+  <si>
+    <t>One trial immediate</t>
+  </si>
+  <si>
+    <t>two trial immediate</t>
+  </si>
+  <si>
+    <t>in between delayed</t>
+  </si>
+  <si>
+    <t>one trial delayed</t>
+  </si>
+  <si>
+    <t>two trial delayed</t>
+  </si>
+  <si>
+    <t>"I'll remember this!" Effects of emotionality on memory predictions verus memory performance</t>
+  </si>
+  <si>
+    <t>Carissa A. Zimmerman</t>
+  </si>
+  <si>
+    <t>Colleen M. Keley</t>
+  </si>
+  <si>
+    <t>Bradley &amp; Lang, 1999</t>
+  </si>
+  <si>
+    <t>neutral and negative noun pairs</t>
+  </si>
+  <si>
+    <t>negative words</t>
+  </si>
+  <si>
+    <t>neutral words</t>
+  </si>
+  <si>
+    <t>nouns rated for emotion</t>
+  </si>
+  <si>
+    <t>neutral, positive, and negative noun pairs</t>
+  </si>
+  <si>
+    <t>positive words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1535,55 +1649,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="51.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="47.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="51.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="59" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="58" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="59.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.83203125" style="2"/>
+    <col min="31" max="31" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
@@ -1693,7 +1807,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -1773,7 +1887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
@@ -1853,7 +1967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -1933,7 +2047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>133</v>
       </c>
@@ -2013,7 +2127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
@@ -2093,7 +2207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>133</v>
       </c>
@@ -2173,7 +2287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>133</v>
       </c>
@@ -2253,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>133</v>
       </c>
@@ -2333,7 +2447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -2413,7 +2527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>133</v>
       </c>
@@ -2493,7 +2607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>133</v>
       </c>
@@ -2582,7 +2696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>133</v>
       </c>
@@ -2671,7 +2785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>133</v>
       </c>
@@ -2760,7 +2874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
@@ -2849,7 +2963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -2938,7 +3052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>133</v>
       </c>
@@ -3027,7 +3141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>133</v>
       </c>
@@ -3116,7 +3230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>133</v>
       </c>
@@ -3205,7 +3319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>133</v>
       </c>
@@ -3294,7 +3408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>133</v>
       </c>
@@ -3383,7 +3497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>133</v>
       </c>
@@ -3472,7 +3586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>133</v>
       </c>
@@ -3561,7 +3675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>133</v>
       </c>
@@ -3650,7 +3764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>133</v>
       </c>
@@ -3739,7 +3853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>133</v>
       </c>
@@ -3828,7 +3942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>133</v>
       </c>
@@ -3917,7 +4031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>133</v>
       </c>
@@ -4006,7 +4120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>133</v>
       </c>
@@ -4095,7 +4209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>133</v>
       </c>
@@ -4184,7 +4298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>133</v>
       </c>
@@ -4273,7 +4387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>133</v>
       </c>
@@ -4359,7 +4473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>133</v>
       </c>
@@ -4445,7 +4559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
@@ -4531,7 +4645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
@@ -4617,7 +4731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>133</v>
       </c>
@@ -4703,7 +4817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>133</v>
       </c>
@@ -4789,7 +4903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>133</v>
       </c>
@@ -4875,7 +4989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>133</v>
       </c>
@@ -4961,7 +5075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>133</v>
       </c>
@@ -5047,7 +5161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>133</v>
       </c>
@@ -5133,7 +5247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>133</v>
       </c>
@@ -5219,7 +5333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>133</v>
       </c>
@@ -5305,7 +5419,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -5391,7 +5505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -5477,7 +5591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -5563,7 +5677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>133</v>
       </c>
@@ -5649,7 +5763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -5735,7 +5849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -5821,7 +5935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>133</v>
       </c>
@@ -5907,7 +6021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>133</v>
       </c>
@@ -5993,7 +6107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>133</v>
       </c>
@@ -6079,7 +6193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>133</v>
       </c>
@@ -6165,7 +6279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>133</v>
       </c>
@@ -6251,7 +6365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>133</v>
       </c>
@@ -6337,7 +6451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -6423,7 +6537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>133</v>
       </c>
@@ -6509,7 +6623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>133</v>
       </c>
@@ -6592,7 +6706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>133</v>
       </c>
@@ -6675,7 +6789,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>133</v>
       </c>
@@ -6758,7 +6872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>133</v>
       </c>
@@ -6841,7 +6955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
@@ -6924,7 +7038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
@@ -7007,7 +7121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
@@ -7090,7 +7204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>133</v>
       </c>
@@ -7173,7 +7287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>173</v>
       </c>
@@ -7260,7 +7374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>173</v>
       </c>
@@ -7347,7 +7461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>173</v>
       </c>
@@ -7434,7 +7548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>173</v>
       </c>
@@ -7521,7 +7635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>173</v>
       </c>
@@ -7608,7 +7722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>173</v>
       </c>
@@ -7695,7 +7809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>173</v>
       </c>
@@ -7782,7 +7896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>173</v>
       </c>
@@ -7869,7 +7983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>173</v>
       </c>
@@ -7956,7 +8070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>173</v>
       </c>
@@ -8043,7 +8157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>173</v>
       </c>
@@ -8130,7 +8244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>173</v>
       </c>
@@ -8217,7 +8331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>173</v>
       </c>
@@ -8304,7 +8418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>173</v>
       </c>
@@ -8391,7 +8505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>173</v>
       </c>
@@ -8476,7 +8590,7 @@
       </c>
       <c r="AI80" s="5"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>173</v>
       </c>
@@ -8561,7 +8675,7 @@
       </c>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>173</v>
       </c>
@@ -8648,7 +8762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>173</v>
       </c>
@@ -8735,7 +8849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>173</v>
       </c>
@@ -8822,7 +8936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>173</v>
       </c>
@@ -8909,7 +9023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>173</v>
       </c>
@@ -8996,7 +9110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
@@ -9083,7 +9197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>173</v>
       </c>
@@ -9170,7 +9284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>173</v>
       </c>
@@ -9257,7 +9371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>173</v>
       </c>
@@ -9344,7 +9458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>173</v>
       </c>
@@ -9431,7 +9545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>173</v>
       </c>
@@ -9518,7 +9632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>173</v>
       </c>
@@ -9605,7 +9719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>219</v>
       </c>
@@ -9709,7 +9823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>219</v>
       </c>
@@ -9813,7 +9927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>219</v>
       </c>
@@ -9917,7 +10031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>219</v>
       </c>
@@ -10021,7 +10135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>219</v>
       </c>
@@ -10125,7 +10239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>219</v>
       </c>
@@ -10229,7 +10343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>219</v>
       </c>
@@ -10333,7 +10447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>219</v>
       </c>
@@ -10437,7 +10551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>219</v>
       </c>
@@ -10541,7 +10655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>219</v>
       </c>
@@ -10645,7 +10759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>219</v>
       </c>
@@ -10749,7 +10863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>219</v>
       </c>
@@ -10847,7 +10961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>219</v>
       </c>
@@ -10945,7 +11059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>219</v>
       </c>
@@ -11043,7 +11157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>219</v>
       </c>
@@ -11141,7 +11255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>219</v>
       </c>
@@ -11239,7 +11353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>219</v>
       </c>
@@ -11337,7 +11451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>219</v>
       </c>
@@ -11435,7 +11549,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>219</v>
       </c>
@@ -11533,7 +11647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>219</v>
       </c>
@@ -11637,7 +11751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>219</v>
       </c>
@@ -11741,7 +11855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>219</v>
       </c>
@@ -11845,7 +11959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>219</v>
       </c>
@@ -11949,7 +12063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>219</v>
       </c>
@@ -12053,7 +12167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>219</v>
       </c>
@@ -12157,7 +12271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>219</v>
       </c>
@@ -12261,7 +12375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>219</v>
       </c>
@@ -12362,7 +12476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>219</v>
       </c>
@@ -12463,7 +12577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>219</v>
       </c>
@@ -12564,7 +12678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>219</v>
       </c>
@@ -12665,7 +12779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>219</v>
       </c>
@@ -12766,7 +12880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>219</v>
       </c>
@@ -12867,7 +12981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>219</v>
       </c>
@@ -12968,7 +13082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>219</v>
       </c>
@@ -13069,7 +13183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>219</v>
       </c>
@@ -13170,7 +13284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>219</v>
       </c>
@@ -13271,7 +13385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>219</v>
       </c>
@@ -13375,7 +13489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>219</v>
       </c>
@@ -13479,7 +13593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>219</v>
       </c>
@@ -13583,7 +13697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>219</v>
       </c>
@@ -13687,7 +13801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>219</v>
       </c>
@@ -13791,7 +13905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>219</v>
       </c>
@@ -13895,7 +14009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>219</v>
       </c>
@@ -13999,7 +14113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>219</v>
       </c>
@@ -14103,7 +14217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>219</v>
       </c>
@@ -14207,7 +14321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>219</v>
       </c>
@@ -14311,7 +14425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>219</v>
       </c>
@@ -14415,7 +14529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>219</v>
       </c>
@@ -14519,7 +14633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>219</v>
       </c>
@@ -14623,7 +14737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>219</v>
       </c>
@@ -14727,7 +14841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>219</v>
       </c>
@@ -14831,7 +14945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>219</v>
       </c>
@@ -14935,7 +15049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>219</v>
       </c>
@@ -15039,7 +15153,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>219</v>
       </c>
@@ -15143,7 +15257,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>219</v>
       </c>
@@ -15247,7 +15361,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>219</v>
       </c>
@@ -15351,7 +15465,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>219</v>
       </c>
@@ -15455,7 +15569,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>219</v>
       </c>
@@ -15559,7 +15673,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>219</v>
       </c>
@@ -15663,7 +15777,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>219</v>
       </c>
@@ -15767,7 +15881,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>219</v>
       </c>
@@ -15871,7 +15985,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>219</v>
       </c>
@@ -15975,7 +16089,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>219</v>
       </c>
@@ -16079,7 +16193,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>219</v>
       </c>
@@ -16183,7 +16297,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>219</v>
       </c>
@@ -16287,7 +16401,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>219</v>
       </c>
@@ -16391,7 +16505,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>219</v>
       </c>
@@ -16495,7 +16609,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>219</v>
       </c>
@@ -16599,7 +16713,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>219</v>
       </c>
@@ -16703,7 +16817,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>219</v>
       </c>
@@ -16807,7 +16921,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>219</v>
       </c>
@@ -16911,7 +17025,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>219</v>
       </c>
@@ -17015,7 +17129,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>219</v>
       </c>
@@ -17119,7 +17233,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>219</v>
       </c>
@@ -17223,7 +17337,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>219</v>
       </c>
@@ -17327,7 +17441,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>219</v>
       </c>
@@ -17431,7 +17545,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>219</v>
       </c>
@@ -17538,7 +17652,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>219</v>
       </c>
@@ -17642,7 +17756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>219</v>
       </c>
@@ -17743,7 +17857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>219</v>
       </c>
@@ -17847,7 +17961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>219</v>
       </c>
@@ -17951,7 +18065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>219</v>
       </c>
@@ -18055,7 +18169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>219</v>
       </c>
@@ -18159,7 +18273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>219</v>
       </c>
@@ -18263,7 +18377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>219</v>
       </c>
@@ -18367,7 +18481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>219</v>
       </c>
@@ -18471,7 +18585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>219</v>
       </c>
@@ -18575,7 +18689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>219</v>
       </c>
@@ -18679,7 +18793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>219</v>
       </c>
@@ -18783,7 +18897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>219</v>
       </c>
@@ -18887,7 +19001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>219</v>
       </c>
@@ -18991,7 +19105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>219</v>
       </c>
@@ -19095,7 +19209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>219</v>
       </c>
@@ -19199,7 +19313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>219</v>
       </c>
@@ -19303,7 +19417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>219</v>
       </c>
@@ -19407,7 +19521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>219</v>
       </c>
@@ -19511,7 +19625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>219</v>
       </c>
@@ -19612,7 +19726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>219</v>
       </c>
@@ -19713,7 +19827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>219</v>
       </c>
@@ -19814,7 +19928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>219</v>
       </c>
@@ -19915,7 +20029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>219</v>
       </c>
@@ -20016,7 +20130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>219</v>
       </c>
@@ -20117,7 +20231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>219</v>
       </c>
@@ -20218,7 +20332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>219</v>
       </c>
@@ -20319,7 +20433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>219</v>
       </c>
@@ -20420,7 +20534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>219</v>
       </c>
@@ -20519,6 +20633,1518 @@
       </c>
       <c r="AI199" s="2">
         <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B200" s="2">
+        <v>177</v>
+      </c>
+      <c r="C200" s="2">
+        <v>82</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>1</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="S200" s="2">
+        <v>2003</v>
+      </c>
+      <c r="U200" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="V200" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W200" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X200" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z200" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA200" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB200" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC200" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD200" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE200" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF200" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG200" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH200" s="2">
+        <v>54</v>
+      </c>
+      <c r="AI200" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B201" s="2">
+        <v>177</v>
+      </c>
+      <c r="C201" s="2">
+        <v>82</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q201" s="2">
+        <v>1</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="S201" s="2">
+        <v>2003</v>
+      </c>
+      <c r="U201" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W201" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X201" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z201" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA201" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB201" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE201" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF201" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG201" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH201" s="2">
+        <v>54</v>
+      </c>
+      <c r="AI201" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B202" s="2">
+        <v>177</v>
+      </c>
+      <c r="C202" s="2">
+        <v>82</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>1</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="S202" s="2">
+        <v>2003</v>
+      </c>
+      <c r="U202" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W202" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X202" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z202" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA202" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB202" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC202" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD202" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE202" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF202" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG202" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH202" s="2">
+        <v>54</v>
+      </c>
+      <c r="AI202" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B203" s="2">
+        <v>177</v>
+      </c>
+      <c r="C203" s="2">
+        <v>82</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q203" s="2">
+        <v>1</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S203" s="2">
+        <v>2003</v>
+      </c>
+      <c r="U203" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="V203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W203" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X203" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z203" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA203" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB203" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD203" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE203" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF203" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG203" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH203" s="2">
+        <v>54</v>
+      </c>
+      <c r="AI203" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B204" s="2">
+        <v>177</v>
+      </c>
+      <c r="C204" s="2">
+        <v>82</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>1</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="S204" s="2">
+        <v>2003</v>
+      </c>
+      <c r="U204" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="V204" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W204" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X204" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z204" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA204" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB204" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC204" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE204" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF204" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH204" s="2">
+        <v>54</v>
+      </c>
+      <c r="AI204" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B205" s="2">
+        <v>178</v>
+      </c>
+      <c r="C205" s="2">
+        <v>84</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>1</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="S205" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U205" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V205" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W205" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X205" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA205" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB205" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC205" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD205" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE205" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH205" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI205" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B206" s="2">
+        <v>178</v>
+      </c>
+      <c r="C206" s="2">
+        <v>84</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>1</v>
+      </c>
+      <c r="R206" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S206" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U206" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="V206" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W206" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X206" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA206" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB206" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC206" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD206" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE206" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG206" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH206" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI206" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B207" s="2">
+        <v>178</v>
+      </c>
+      <c r="C207" s="2">
+        <v>84</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>2</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="S207" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U207" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="V207" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W207" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X207" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA207" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB207" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC207" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD207" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE207" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG207" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH207" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI207" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B208" s="2">
+        <v>178</v>
+      </c>
+      <c r="C208" s="2">
+        <v>84</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>2</v>
+      </c>
+      <c r="R208" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S208" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U208" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="V208" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W208" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X208" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA208" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB208" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC208" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD208" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE208" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG208" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH208" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI208" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B209" s="2">
+        <v>178</v>
+      </c>
+      <c r="C209" s="2">
+        <v>84</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>3</v>
+      </c>
+      <c r="R209" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="S209" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U209" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="V209" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W209" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X209" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA209" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB209" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC209" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE209" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG209" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH209" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI209" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B210" s="2">
+        <v>178</v>
+      </c>
+      <c r="C210" s="2">
+        <v>84</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>3</v>
+      </c>
+      <c r="R210" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S210" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U210" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="V210" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W210" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X210" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z210" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA210" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC210" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE210" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG210" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH210" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI210" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B211" s="2">
+        <v>178</v>
+      </c>
+      <c r="C211" s="2">
+        <v>84</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q211" s="2">
+        <v>3</v>
+      </c>
+      <c r="R211" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="S211" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U211" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="V211" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W211" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X211" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z211" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA211" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB211" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC211" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE211" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG211" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH211" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI211" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B212" s="2">
+        <v>178</v>
+      </c>
+      <c r="C212" s="2">
+        <v>84</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q212" s="2">
+        <v>3</v>
+      </c>
+      <c r="R212" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="S212" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U212" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V212" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W212" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X212" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z212" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA212" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB212" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC212" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD212" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE212" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG212" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH212" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI212" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B213" s="2">
+        <v>178</v>
+      </c>
+      <c r="C213" s="2">
+        <v>84</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q213" s="2">
+        <v>3</v>
+      </c>
+      <c r="R213" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S213" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U213" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="V213" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W213" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X213" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z213" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA213" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB213" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC213" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD213" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE213" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG213" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH213" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI213" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B214" s="2">
+        <v>178</v>
+      </c>
+      <c r="C214" s="2">
+        <v>84</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>3</v>
+      </c>
+      <c r="R214" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="S214" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U214" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="V214" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W214" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X214" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z214" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA214" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB214" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC214" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD214" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE214" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG214" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH214" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI214" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B215" s="2">
+        <v>178</v>
+      </c>
+      <c r="C215" s="2">
+        <v>84</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>4</v>
+      </c>
+      <c r="R215" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="S215" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U215" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="V215" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W215" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X215" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA215" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB215" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC215" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD215" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE215" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG215" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH215" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI215" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B216" s="2">
+        <v>178</v>
+      </c>
+      <c r="C216" s="2">
+        <v>84</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>4</v>
+      </c>
+      <c r="R216" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S216" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U216" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V216" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W216" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X216" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA216" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB216" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC216" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD216" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE216" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG216" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH216" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI216" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B217" s="2">
+        <v>178</v>
+      </c>
+      <c r="C217" s="2">
+        <v>84</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>4</v>
+      </c>
+      <c r="R217" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="S217" s="2">
+        <v>2010</v>
+      </c>
+      <c r="U217" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V217" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W217" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X217" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA217" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB217" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC217" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD217" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE217" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG217" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH217" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI217" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -20530,21 +22156,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20573,7 +22200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -20593,7 +22220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -20607,7 +22234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -20621,7 +22248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -20638,7 +22265,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -20655,7 +22282,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -20672,7 +22299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -20692,7 +22319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -20709,7 +22336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -20723,7 +22350,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31</v>
       </c>
@@ -20740,7 +22367,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
@@ -20757,7 +22384,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -20774,7 +22401,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>45</v>
       </c>
@@ -20794,7 +22421,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>47</v>
       </c>
@@ -20820,7 +22447,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>48</v>
       </c>
@@ -20837,7 +22464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>49</v>
       </c>
@@ -20854,7 +22481,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>51</v>
       </c>
@@ -20871,7 +22498,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>53</v>
       </c>
@@ -20888,7 +22515,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>54</v>
       </c>
@@ -20914,7 +22541,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>55</v>
       </c>
@@ -20928,7 +22555,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>56</v>
       </c>
@@ -20948,7 +22575,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>57</v>
       </c>
@@ -20965,7 +22592,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>59</v>
       </c>
@@ -20982,7 +22609,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60</v>
       </c>
@@ -20997,6 +22624,109 @@
       </c>
       <c r="I25" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E27" t="s">
+        <v>395</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D28" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E29" t="s">
+        <v>403</v>
+      </c>
+      <c r="F29" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" t="s">
+        <v>405</v>
+      </c>
+      <c r="H29" t="s">
+        <v>406</v>
+      </c>
+      <c r="I29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" t="s">
+        <v>409</v>
+      </c>
+      <c r="I30" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/JOLMetaData.xlsx
+++ b/JOLMetaData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="455">
   <si>
     <t>Rank</t>
   </si>
@@ -1317,6 +1317,87 @@
   </si>
   <si>
     <t>positive words</t>
+  </si>
+  <si>
+    <t>Metacognitive control: Children's short-term versus long-term study strategies</t>
+  </si>
+  <si>
+    <t>Lisa K. Son</t>
+  </si>
+  <si>
+    <t>First grade students</t>
+  </si>
+  <si>
+    <t>Aging and recollection in the accuracy of judgments of learning</t>
+  </si>
+  <si>
+    <t>Karen A. Daniels</t>
+  </si>
+  <si>
+    <t>Jeffrey P. Toth</t>
+  </si>
+  <si>
+    <t>10 to 12 minutes</t>
+  </si>
+  <si>
+    <t>nouns and adjectives</t>
+  </si>
+  <si>
+    <t>college age and older adults</t>
+  </si>
+  <si>
+    <t>between (recall vs recognition)</t>
+  </si>
+  <si>
+    <t>between (old vs young)</t>
+  </si>
+  <si>
+    <t>N for participants in recall and recognition groups not given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recall and recognition </t>
+  </si>
+  <si>
+    <t>recall and recognition</t>
+  </si>
+  <si>
+    <t>Anchoring effects in the absolute accuracy of immediate versus delayed judgments of learning</t>
+  </si>
+  <si>
+    <t>Nelson &amp; Dunlosky 1994</t>
+  </si>
+  <si>
+    <t>Swahili and English word pairs</t>
+  </si>
+  <si>
+    <t>between (easy, medium, difficult)</t>
+  </si>
+  <si>
+    <t>easy pairs</t>
+  </si>
+  <si>
+    <t>medium pairs</t>
+  </si>
+  <si>
+    <t>difficult pairs</t>
+  </si>
+  <si>
+    <t>N for participants in difficulty groups not given</t>
+  </si>
+  <si>
+    <t>mixed (difficulty level between, delayed/immediate within)</t>
+  </si>
+  <si>
+    <t>two between manipulations (between difficulty and between immediate vs immediate and delayed)</t>
+  </si>
+  <si>
+    <t>Easily percieved, easily remembere? Perceptual interference produces a double dissociation between metamemory and memory performance</t>
+  </si>
+  <si>
+    <t>Miri Besken</t>
+  </si>
+  <si>
+    <t>Neil W. Mulligan</t>
   </si>
 </sst>
 </file>
@@ -1650,11 +1731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ217"/>
+  <dimension ref="A1:AJ246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V246" sqref="V246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20726,7 +20807,7 @@
         <v>133</v>
       </c>
       <c r="B201" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C201" s="2">
         <v>82</v>
@@ -20812,7 +20893,7 @@
         <v>133</v>
       </c>
       <c r="B202" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C202" s="2">
         <v>82</v>
@@ -20898,7 +20979,7 @@
         <v>133</v>
       </c>
       <c r="B203" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C203" s="2">
         <v>82</v>
@@ -20984,7 +21065,7 @@
         <v>133</v>
       </c>
       <c r="B204" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C204" s="2">
         <v>82</v>
@@ -21070,7 +21151,7 @@
         <v>133</v>
       </c>
       <c r="B205" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C205" s="2">
         <v>84</v>
@@ -21138,8 +21219,8 @@
       <c r="AE205" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AF205" s="2">
-        <v>0</v>
+      <c r="AF205" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="AG205" s="2" t="s">
         <v>38</v>
@@ -21156,7 +21237,7 @@
         <v>133</v>
       </c>
       <c r="B206" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C206" s="2">
         <v>84</v>
@@ -21224,8 +21305,8 @@
       <c r="AE206" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AF206" s="2">
-        <v>0</v>
+      <c r="AF206" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="AG206" s="2" t="s">
         <v>38</v>
@@ -21242,7 +21323,7 @@
         <v>133</v>
       </c>
       <c r="B207" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C207" s="2">
         <v>84</v>
@@ -21310,8 +21391,8 @@
       <c r="AE207" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AF207" s="2">
-        <v>0</v>
+      <c r="AF207" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="AG207" s="2" t="s">
         <v>38</v>
@@ -21328,7 +21409,7 @@
         <v>133</v>
       </c>
       <c r="B208" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C208" s="2">
         <v>84</v>
@@ -21396,8 +21477,8 @@
       <c r="AE208" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AF208" s="2">
-        <v>0</v>
+      <c r="AF208" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="AG208" s="2" t="s">
         <v>38</v>
@@ -21409,12 +21490,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B209" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C209" s="2">
         <v>84</v>
@@ -21482,6 +21563,9 @@
       <c r="AE209" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF209" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG209" s="2" t="s">
         <v>38</v>
       </c>
@@ -21492,12 +21576,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B210" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C210" s="2">
         <v>84</v>
@@ -21565,6 +21649,9 @@
       <c r="AE210" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF210" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG210" s="2" t="s">
         <v>38</v>
       </c>
@@ -21575,12 +21662,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B211" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C211" s="2">
         <v>84</v>
@@ -21648,6 +21735,9 @@
       <c r="AE211" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF211" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG211" s="2" t="s">
         <v>38</v>
       </c>
@@ -21658,12 +21748,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B212" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C212" s="2">
         <v>84</v>
@@ -21731,6 +21821,9 @@
       <c r="AE212" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF212" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG212" s="2" t="s">
         <v>38</v>
       </c>
@@ -21741,12 +21834,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B213" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C213" s="2">
         <v>84</v>
@@ -21814,6 +21907,9 @@
       <c r="AE213" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF213" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG213" s="2" t="s">
         <v>38</v>
       </c>
@@ -21824,12 +21920,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B214" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C214" s="2">
         <v>84</v>
@@ -21897,6 +21993,9 @@
       <c r="AE214" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF214" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG214" s="2" t="s">
         <v>38</v>
       </c>
@@ -21907,12 +22006,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B215" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C215" s="2">
         <v>84</v>
@@ -21962,6 +22061,9 @@
       <c r="Y215" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="Z215" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AA215" s="2" t="s">
         <v>58</v>
       </c>
@@ -21977,6 +22079,9 @@
       <c r="AE215" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF215" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG215" s="2" t="s">
         <v>38</v>
       </c>
@@ -21987,12 +22092,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B216" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C216" s="2">
         <v>84</v>
@@ -22042,6 +22147,9 @@
       <c r="Y216" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="Z216" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AA216" s="2" t="s">
         <v>58</v>
       </c>
@@ -22057,6 +22165,9 @@
       <c r="AE216" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF216" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG216" s="2" t="s">
         <v>38</v>
       </c>
@@ -22067,12 +22178,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B217" s="2">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C217" s="2">
         <v>84</v>
@@ -22122,6 +22233,9 @@
       <c r="Y217" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="Z217" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AA217" s="2" t="s">
         <v>58</v>
       </c>
@@ -22137,6 +22251,9 @@
       <c r="AE217" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AF217" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AG217" s="2" t="s">
         <v>38</v>
       </c>
@@ -22145,6 +22262,2428 @@
       </c>
       <c r="AI217" s="2">
         <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B218" s="2">
+        <v>195</v>
+      </c>
+      <c r="C218" s="2">
+        <v>85</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>1</v>
+      </c>
+      <c r="S218" s="2">
+        <v>2005</v>
+      </c>
+      <c r="U218" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="V218" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W218" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X218" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA218" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB218" s="2">
+        <v>30</v>
+      </c>
+      <c r="AC218" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD218" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG218" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH218" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI218" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B219" s="2">
+        <v>196</v>
+      </c>
+      <c r="C219" s="2">
+        <v>87</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>1</v>
+      </c>
+      <c r="S219" s="2">
+        <v>2009</v>
+      </c>
+      <c r="U219" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="V219" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W219" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X219" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA219" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB219" s="2">
+        <v>120</v>
+      </c>
+      <c r="AC219" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD219" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF219" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG219" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH219" s="2">
+        <v>154</v>
+      </c>
+      <c r="AJ219" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B220" s="2">
+        <v>197</v>
+      </c>
+      <c r="C220" s="2">
+        <v>87</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q220" s="2">
+        <v>1</v>
+      </c>
+      <c r="S220" s="2">
+        <v>2009</v>
+      </c>
+      <c r="U220" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="V220" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W220" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X220" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA220" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB220" s="2">
+        <v>120</v>
+      </c>
+      <c r="AC220" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD220" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF220" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG220" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH220" s="2">
+        <v>154</v>
+      </c>
+      <c r="AJ220" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B221" s="2">
+        <v>198</v>
+      </c>
+      <c r="C221" s="2">
+        <v>87</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>1</v>
+      </c>
+      <c r="S221" s="2">
+        <v>2009</v>
+      </c>
+      <c r="U221" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V221" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W221" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X221" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA221" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB221" s="2">
+        <v>120</v>
+      </c>
+      <c r="AC221" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD221" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF221" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG221" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH221" s="2">
+        <v>154</v>
+      </c>
+      <c r="AI221" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B222" s="2">
+        <v>199</v>
+      </c>
+      <c r="C222" s="2">
+        <v>87</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q222" s="2">
+        <v>1</v>
+      </c>
+      <c r="S222" s="2">
+        <v>2009</v>
+      </c>
+      <c r="U222" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="V222" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W222" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X222" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA222" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB222" s="2">
+        <v>120</v>
+      </c>
+      <c r="AC222" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD222" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF222" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG222" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH222" s="2">
+        <v>154</v>
+      </c>
+      <c r="AI222" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B223" s="2">
+        <v>200</v>
+      </c>
+      <c r="C223" s="2">
+        <v>87</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q223" s="2">
+        <v>1</v>
+      </c>
+      <c r="S223" s="2">
+        <v>2009</v>
+      </c>
+      <c r="U223" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V223" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W223" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X223" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA223" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB223" s="2">
+        <v>120</v>
+      </c>
+      <c r="AC223" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD223" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF223" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG223" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH223" s="2">
+        <v>154</v>
+      </c>
+      <c r="AJ223" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B224" s="2">
+        <v>201</v>
+      </c>
+      <c r="C224" s="2">
+        <v>87</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>1</v>
+      </c>
+      <c r="S224" s="2">
+        <v>2009</v>
+      </c>
+      <c r="U224" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V224" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W224" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X224" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA224" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB224" s="2">
+        <v>120</v>
+      </c>
+      <c r="AC224" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF224" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG224" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH224" s="2">
+        <v>154</v>
+      </c>
+      <c r="AJ224" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B225" s="2">
+        <v>202</v>
+      </c>
+      <c r="C225" s="2">
+        <v>88</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>1</v>
+      </c>
+      <c r="R225" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="S225" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U225" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V225" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W225" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X225" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA225" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB225" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC225" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD225" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE225" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG225" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH225" s="2">
+        <v>119</v>
+      </c>
+      <c r="AI225" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B226" s="2">
+        <v>203</v>
+      </c>
+      <c r="C226" s="2">
+        <v>88</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q226" s="2">
+        <v>1</v>
+      </c>
+      <c r="R226" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S226" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U226" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="V226" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W226" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA226" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB226" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC226" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD226" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE226" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG226" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH226" s="2">
+        <v>119</v>
+      </c>
+      <c r="AI226" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B227" s="2">
+        <v>204</v>
+      </c>
+      <c r="C227" s="2">
+        <v>88</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>1</v>
+      </c>
+      <c r="R227" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S227" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U227" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="V227" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W227" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X227" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA227" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB227" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC227" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD227" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE227" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG227" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH227" s="2">
+        <v>119</v>
+      </c>
+      <c r="AI227" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B228" s="2">
+        <v>205</v>
+      </c>
+      <c r="C228" s="2">
+        <v>88</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q228" s="2">
+        <v>2</v>
+      </c>
+      <c r="R228" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="S228" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U228" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="V228" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W228" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X228" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA228" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB228" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC228" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE228" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG228" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH228" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ228" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B229" s="2">
+        <v>206</v>
+      </c>
+      <c r="C229" s="2">
+        <v>88</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q229" s="2">
+        <v>2</v>
+      </c>
+      <c r="R229" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S229" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U229" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="V229" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W229" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X229" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA229" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB229" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC229" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD229" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE229" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG229" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH229" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ229" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B230" s="2">
+        <v>207</v>
+      </c>
+      <c r="C230" s="2">
+        <v>88</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q230" s="2">
+        <v>2</v>
+      </c>
+      <c r="R230" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S230" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U230" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="V230" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W230" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X230" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA230" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB230" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC230" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD230" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE230" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG230" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH230" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ230" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B231" s="2">
+        <v>208</v>
+      </c>
+      <c r="C231" s="2">
+        <v>88</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q231" s="2">
+        <v>3</v>
+      </c>
+      <c r="R231" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="S231" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U231" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="V231" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W231" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X231" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA231" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB231" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC231" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD231" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE231" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG231" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH231" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ231" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B232" s="2">
+        <v>209</v>
+      </c>
+      <c r="C232" s="2">
+        <v>88</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q232" s="2">
+        <v>3</v>
+      </c>
+      <c r="R232" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S232" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U232" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="V232" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W232" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X232" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA232" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB232" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC232" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD232" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE232" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG232" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH232" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ232" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B233" s="2">
+        <v>210</v>
+      </c>
+      <c r="C233" s="2">
+        <v>88</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q233" s="2">
+        <v>3</v>
+      </c>
+      <c r="R233" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S233" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U233" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V233" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W233" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X233" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA233" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB233" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC233" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD233" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE233" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG233" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH233" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ233" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B234" s="2">
+        <v>211</v>
+      </c>
+      <c r="C234" s="2">
+        <v>88</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q234" s="2">
+        <v>3</v>
+      </c>
+      <c r="R234" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="S234" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U234" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="V234" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W234" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X234" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA234" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB234" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC234" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD234" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE234" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG234" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH234" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ234" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B235" s="2">
+        <v>212</v>
+      </c>
+      <c r="C235" s="2">
+        <v>88</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q235" s="2">
+        <v>3</v>
+      </c>
+      <c r="R235" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S235" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U235" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="V235" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W235" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X235" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA235" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB235" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC235" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD235" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE235" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG235" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH235" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ235" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B236" s="2">
+        <v>213</v>
+      </c>
+      <c r="C236" s="2">
+        <v>88</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q236" s="2">
+        <v>3</v>
+      </c>
+      <c r="R236" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S236" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U236" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="V236" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W236" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X236" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA236" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB236" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC236" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD236" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE236" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG236" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH236" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ236" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B237" s="2">
+        <v>214</v>
+      </c>
+      <c r="C237" s="2">
+        <v>88</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q237" s="2">
+        <v>4</v>
+      </c>
+      <c r="R237" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="S237" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U237" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="V237" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W237" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X237" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA237" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB237" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC237" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD237" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE237" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG237" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH237" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ237" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B238" s="2">
+        <v>215</v>
+      </c>
+      <c r="C238" s="2">
+        <v>88</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q238" s="2">
+        <v>4</v>
+      </c>
+      <c r="R238" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S238" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U238" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V238" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W238" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X238" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA238" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB238" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC238" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD238" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE238" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG238" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH238" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ238" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B239" s="2">
+        <v>216</v>
+      </c>
+      <c r="C239" s="2">
+        <v>88</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q239" s="2">
+        <v>4</v>
+      </c>
+      <c r="R239" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S239" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U239" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="V239" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W239" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X239" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA239" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB239" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC239" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD239" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE239" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG239" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH239" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ239" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B240" s="2">
+        <v>217</v>
+      </c>
+      <c r="C240" s="2">
+        <v>88</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q240" s="2">
+        <v>4</v>
+      </c>
+      <c r="R240" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="S240" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U240" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="V240" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W240" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X240" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA240" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB240" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC240" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD240" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE240" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG240" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH240" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ240" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B241" s="2">
+        <v>218</v>
+      </c>
+      <c r="C241" s="2">
+        <v>88</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q241" s="2">
+        <v>4</v>
+      </c>
+      <c r="R241" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S241" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U241" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="V241" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W241" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X241" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA241" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB241" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC241" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD241" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE241" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG241" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH241" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ241" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B242" s="2">
+        <v>219</v>
+      </c>
+      <c r="C242" s="2">
+        <v>88</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q242" s="2">
+        <v>4</v>
+      </c>
+      <c r="R242" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S242" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U242" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V242" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W242" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X242" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA242" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB242" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC242" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD242" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE242" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG242" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH242" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ242" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B243" s="2">
+        <v>220</v>
+      </c>
+      <c r="C243" s="2">
+        <v>88</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q243" s="2">
+        <v>4</v>
+      </c>
+      <c r="R243" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="S243" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U243" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="V243" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W243" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X243" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA243" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB243" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC243" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD243" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE243" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG243" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH243" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ243" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B244" s="2">
+        <v>221</v>
+      </c>
+      <c r="C244" s="2">
+        <v>88</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q244" s="2">
+        <v>4</v>
+      </c>
+      <c r="R244" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S244" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U244" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="V244" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W244" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X244" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA244" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB244" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC244" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD244" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE244" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG244" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH244" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ244" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B245" s="2">
+        <v>222</v>
+      </c>
+      <c r="C245" s="2">
+        <v>88</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q245" s="2">
+        <v>4</v>
+      </c>
+      <c r="R245" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S245" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U245" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="V245" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W245" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X245" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA245" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB245" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC245" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD245" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE245" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG245" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH245" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ245" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B246" s="2">
+        <v>223</v>
+      </c>
+      <c r="C246" s="2">
+        <v>89</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M246" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O246" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q246" s="2">
+        <v>2</v>
+      </c>
+      <c r="S246" s="2">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
